--- a/documentation/datamart_build/warehouse_to_datamart.xlsx
+++ b/documentation/datamart_build/warehouse_to_datamart.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\nfl_capstone\documentation\datamart_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C96EFD-ACFB-46D7-955F-EA6BE3978FE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFD3FE-5FAE-4532-9251-B0950D9F4152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimensions.players" sheetId="1" r:id="rId1"/>
+    <sheet name="dimensions.colleges" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -456,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,4 +693,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C52D51D-0F5C-4963-B7B0-B89A97857471}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/datamart_build/warehouse_to_datamart.xlsx
+++ b/documentation/datamart_build/warehouse_to_datamart.xlsx
@@ -8,25 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\nfl_capstone\documentation\datamart_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFD3FE-5FAE-4532-9251-B0950D9F4152}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E30D61-E762-46CB-9BE9-E2AA74558D0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimensions.players" sheetId="1" r:id="rId1"/>
     <sheet name="dimensions.colleges" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>Output</t>
   </si>
@@ -91,28 +97,52 @@
     <t>Target_name</t>
   </si>
   <si>
-    <t>draft_stats</t>
-  </si>
-  <si>
     <t>combine_stats</t>
   </si>
   <si>
-    <t>college_weight</t>
-  </si>
-  <si>
     <t>college_height_inches</t>
   </si>
   <si>
     <t>created in build based on index or Edina's script</t>
   </si>
   <si>
-    <t>calculated</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
-    <t>offense, defense, or special teams</t>
+    <t>college_players</t>
+  </si>
+  <si>
+    <t>home_city</t>
+  </si>
+  <si>
+    <t>home_state</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>full_name, position_group, college</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>position_rank</t>
+  </si>
+  <si>
+    <t>position_group_rank</t>
+  </si>
+  <si>
+    <t>section_rank</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>drafting_team</t>
+  </si>
+  <si>
+    <t>college_weight_pounds</t>
   </si>
 </sst>
 </file>
@@ -455,19 +485,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +524,9 @@
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
@@ -505,7 +538,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -514,8 +547,12 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
@@ -530,7 +567,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -547,7 +584,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -564,7 +601,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -581,7 +618,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -598,28 +635,30 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -630,45 +669,43 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -677,21 +714,152 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -699,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C52D51D-0F5C-4963-B7B0-B89A97857471}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documentation/datamart_build/warehouse_to_datamart.xlsx
+++ b/documentation/datamart_build/warehouse_to_datamart.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\nfl_capstone\documentation\datamart_build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E30D61-E762-46CB-9BE9-E2AA74558D0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E34AB21-3452-4CB3-BCC6-DFC7D5F1193A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dimensions.players" sheetId="1" r:id="rId1"/>
     <sheet name="dimensions.colleges" sheetId="2" r:id="rId2"/>
+    <sheet name="facts_player_metrics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Output</t>
   </si>
@@ -143,6 +144,42 @@
   </si>
   <si>
     <t>college_weight_pounds</t>
+  </si>
+  <si>
+    <t>fms_id</t>
+  </si>
+  <si>
+    <t>dimensions.players</t>
+  </si>
+  <si>
+    <t>max_madden_ranking</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>statistics_wh/madden_rankings</t>
+  </si>
+  <si>
+    <t>forty</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>threecone</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>statistics_wh/combine_stats</t>
   </si>
 </sst>
 </file>
@@ -487,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E4:E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +572,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
@@ -875,4 +912,179 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B9C976-8024-4EAD-82E2-3180D8138568}">
+  <dimension ref="C3:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>